--- a/Requirements/SIQ.xlsx
+++ b/Requirements/SIQ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Internet-Banking-System\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="187">
   <si>
     <t>ID</t>
   </si>
@@ -611,10 +611,6 @@
     <t>what is the content of the main page to which cst redirected after registration?</t>
   </si>
   <si>
-    <t>cst shall be redirected to verification code page in which 
-he will enter his code .</t>
-  </si>
-  <si>
     <t>what is the content shall be displayed if cst entered the right 
 verification code ?</t>
   </si>
@@ -693,9 +689,6 @@
   </si>
   <si>
     <t>CIB,HSBC,QNB,AHLI,MISR</t>
-  </si>
-  <si>
-    <t>"You have exceeded the amount of money allowed to be transfered per day"</t>
   </si>
   <si>
     <t>"Invalid account ID"</t>
@@ -755,6 +748,16 @@
   <si>
     <t>adding some questions and cst
 answers (Q38:Q45)</t>
+  </si>
+  <si>
+    <t>cst shall be redirected to verification code page in which 
+he will enter the code which has been sent to his mobile number  as SMS</t>
+  </si>
+  <si>
+    <t>"You have exceeded the amount of money allowed to be transfered "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Cmment </t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1214,10 +1217,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,9 +1248,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1271,9 +1267,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1295,29 +1288,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1326,7 +1298,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1335,6 +1306,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1647,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1666,55 +1682,55 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
     </row>
     <row r="6" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="98" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
     </row>
     <row r="9" spans="3:12" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
@@ -1727,7 +1743,7 @@
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>97</v>
@@ -1736,7 +1752,7 @@
         <v>92</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>94</v>
@@ -1752,35 +1768,47 @@
       <c r="E10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="76">
         <v>43470</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="112">
+        <v>43501</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="11" spans="3:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="76">
         <v>43501</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="111">
+        <v>43501</v>
+      </c>
+      <c r="J11" s="90" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="12" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
@@ -1793,15 +1821,15 @@
       <c r="J12" s="9"/>
     </row>
     <row r="15" spans="3:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
+      <c r="C15" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
     </row>
     <row r="21" spans="2:27" s="53" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="54" t="s">
@@ -1849,315 +1877,315 @@
       <c r="Z21" s="57"/>
       <c r="AA21" s="57"/>
     </row>
-    <row r="22" spans="2:27" s="75" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="67" t="s">
+    <row r="22" spans="2:27" s="73" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="70" t="s">
+      <c r="D22" s="74"/>
+      <c r="E22" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="73" t="s">
+      <c r="F22" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J22" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-    </row>
-    <row r="23" spans="2:27" s="75" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="J22" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+    </row>
+    <row r="23" spans="2:27" s="73" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="80" t="s">
+      <c r="D23" s="67"/>
+      <c r="E23" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="73" t="s">
+      <c r="F23" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J23" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-    </row>
-    <row r="24" spans="2:27" s="75" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="67" t="s">
+      <c r="J23" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+    </row>
+    <row r="24" spans="2:27" s="73" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="76" t="s">
+      <c r="D24" s="67"/>
+      <c r="E24" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="73" t="s">
+      <c r="F24" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-    </row>
-    <row r="25" spans="2:27" s="75" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="67" t="s">
+      <c r="J24" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+    </row>
+    <row r="25" spans="2:27" s="73" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="76" t="s">
+      <c r="E25" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="73" t="s">
+      <c r="F25" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-    </row>
-    <row r="26" spans="2:27" s="75" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="67" t="s">
+      <c r="J25" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+    </row>
+    <row r="26" spans="2:27" s="73" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70" t="s">
+      <c r="D26" s="67"/>
+      <c r="E26" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="73" t="s">
+      <c r="F26" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J26" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="74"/>
-    </row>
-    <row r="27" spans="2:27" s="75" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="67" t="s">
+      <c r="J26" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+    </row>
+    <row r="27" spans="2:27" s="73" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70" t="s">
+      <c r="D27" s="67"/>
+      <c r="E27" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="73" t="s">
+      <c r="F27" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="74"/>
-    </row>
-    <row r="28" spans="2:27" s="75" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="67" t="s">
+      <c r="J27" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+    </row>
+    <row r="28" spans="2:27" s="73" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="76" t="s">
+      <c r="D28" s="67"/>
+      <c r="E28" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="73" t="s">
+      <c r="F28" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J28" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="74"/>
+      <c r="J28" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
     </row>
     <row r="29" spans="2:27" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="60" t="s">
@@ -2339,139 +2367,139 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="2:27" s="75" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="67" t="s">
+    <row r="33" spans="2:27" s="73" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70" t="s">
+      <c r="D33" s="67"/>
+      <c r="E33" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="73" t="s">
+      <c r="F33" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J33" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-    </row>
-    <row r="34" spans="2:27" s="75" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="67" t="s">
+      <c r="J33" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+    </row>
+    <row r="34" spans="2:27" s="73" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="70" t="s">
+      <c r="D34" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="76" t="s">
+      <c r="E34" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I34" s="73" t="s">
+      <c r="F34" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="93"/>
-      <c r="T34" s="93"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="93"/>
-    </row>
-    <row r="35" spans="2:27" s="75" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="67" t="s">
+      <c r="J34" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="89"/>
+    </row>
+    <row r="35" spans="2:27" s="73" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="69"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="67"/>
+      <c r="E35" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" s="73" t="s">
+      <c r="F35" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J35" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="93"/>
-      <c r="T35" s="93"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="93"/>
-      <c r="W35" s="93"/>
-      <c r="X35" s="93"/>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="93"/>
+      <c r="J35" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="89"/>
     </row>
     <row r="36" spans="2:27" s="1" customFormat="1" ht="266.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="60" t="s">
@@ -2605,191 +2633,191 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="2:27" s="75" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="67" t="s">
+    <row r="39" spans="2:27" s="73" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="80" t="s">
+      <c r="D39" s="67"/>
+      <c r="E39" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I39" s="73" t="s">
+      <c r="F39" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J39" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="74"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="74"/>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="74"/>
-      <c r="AA39" s="74"/>
-    </row>
-    <row r="40" spans="2:27" s="75" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="67" t="s">
+      <c r="J39" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+    </row>
+    <row r="40" spans="2:27" s="73" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="80" t="s">
+      <c r="D40" s="67"/>
+      <c r="E40" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" s="73" t="s">
+      <c r="F40" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J40" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
-      <c r="T40" s="74"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="74"/>
-      <c r="W40" s="74"/>
-      <c r="X40" s="74"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="74"/>
-    </row>
-    <row r="41" spans="2:27" s="75" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="67" t="s">
+      <c r="J40" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+    </row>
+    <row r="41" spans="2:27" s="73" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" s="73" t="s">
+      <c r="D41" s="67"/>
+      <c r="E41" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J41" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="74"/>
-      <c r="AA41" s="74"/>
-    </row>
-    <row r="42" spans="2:27" s="75" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="67" t="s">
+      <c r="J41" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="72"/>
+      <c r="Y41" s="72"/>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="72"/>
+    </row>
+    <row r="42" spans="2:27" s="73" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70" t="s">
+      <c r="D42" s="67"/>
+      <c r="E42" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I42" s="73" t="s">
+      <c r="F42" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="74"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="74"/>
-      <c r="AA42" s="74"/>
+      <c r="J42" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="72"/>
+      <c r="AA42" s="72"/>
     </row>
     <row r="43" spans="2:27" s="13" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="86" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="37"/>
-      <c r="E43" s="91" t="s">
+      <c r="E43" s="87" t="s">
         <v>110</v>
       </c>
       <c r="F43" s="35" t="s">
@@ -2807,26 +2835,26 @@
       <c r="J43" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="92"/>
-      <c r="U43" s="92"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="92"/>
-      <c r="X43" s="92"/>
-      <c r="Y43" s="92"/>
-      <c r="Z43" s="92"/>
-      <c r="AA43" s="92"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="88"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="88"/>
+      <c r="AA43" s="88"/>
     </row>
     <row r="44" spans="2:27" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="65" t="s">
         <v>133</v>
       </c>
       <c r="C44" s="32" t="s">
@@ -2926,7 +2954,7 @@
         <v>30</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F46" s="35" t="s">
         <v>68</v>
@@ -3425,7 +3453,7 @@
         <v>59</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F58" s="35" t="s">
         <v>68</v>
@@ -3451,8 +3479,8 @@
         <v>155</v>
       </c>
       <c r="D59" s="63"/>
-      <c r="E59" s="64" t="s">
-        <v>156</v>
+      <c r="E59" s="106" t="s">
+        <v>184</v>
       </c>
       <c r="F59" s="35" t="s">
         <v>68</v>
@@ -3474,12 +3502,12 @@
       <c r="B60" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="62"/>
+      <c r="E60" s="107" t="s">
         <v>157</v>
-      </c>
-      <c r="D60" s="62"/>
-      <c r="E60" s="65" t="s">
-        <v>158</v>
       </c>
       <c r="F60" s="35" t="s">
         <v>68</v>
@@ -3501,12 +3529,12 @@
       <c r="B61" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="78"/>
-      <c r="E61" s="77" t="s">
-        <v>161</v>
+      <c r="C61" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="75"/>
+      <c r="E61" s="108" t="s">
+        <v>160</v>
       </c>
       <c r="F61" s="35" t="s">
         <v>68</v>
@@ -3524,18 +3552,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="2:27" s="86" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="67" t="s">
+    <row r="62" spans="2:27" s="82" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="104" t="s">
-        <v>177</v>
+      <c r="D62" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="93" t="s">
+        <v>176</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="36" t="s">
@@ -3544,23 +3572,23 @@
       <c r="H62" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I62" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="J62" s="71" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="2:27" s="86" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="105" t="s">
+      <c r="I62" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="J62" s="69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" s="82" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="103"/>
-      <c r="E63" s="106" t="s">
-        <v>178</v>
+      <c r="C63" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="92"/>
+      <c r="E63" s="94" t="s">
+        <v>177</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="36" t="s">
@@ -3569,23 +3597,23 @@
       <c r="H63" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I63" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="J63" s="71" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="2:27" s="86" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="85" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="103"/>
-      <c r="E64" s="104" t="s">
-        <v>179</v>
+      <c r="I63" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="J63" s="69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" s="82" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="92"/>
+      <c r="E64" s="93" t="s">
+        <v>185</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="36" t="s">
@@ -3594,23 +3622,23 @@
       <c r="H64" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I64" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="J64" s="71" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" s="86" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="D65" s="107"/>
-      <c r="E65" s="108" t="s">
-        <v>180</v>
+      <c r="I64" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="J64" s="69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" s="82" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="95"/>
+      <c r="E65" s="96" t="s">
+        <v>178</v>
       </c>
       <c r="F65" s="45"/>
       <c r="G65" s="36" t="s">
@@ -3619,44 +3647,44 @@
       <c r="H65" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I65" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="J65" s="71" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" s="86" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="67" t="s">
+      <c r="I65" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="J65" s="69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" s="82" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="E66" s="88" t="s">
+      <c r="E66" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" s="102" t="s">
+      <c r="F66" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="91" t="s">
         <v>69</v>
       </c>
       <c r="H66" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I66" s="71" t="s">
+      <c r="I66" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="J66" s="71" t="s">
+      <c r="J66" s="69" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D67" s="109"/>
+      <c r="D67" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Requirements/SIQ.xlsx
+++ b/Requirements/SIQ.xlsx
@@ -195,13 +195,6 @@
   <si>
     <t>1- current account
  2- saving account</t>
-  </si>
-  <si>
-    <t>1- username 
- 2-password 
- 3-national ID 
- 4- email
- 5-phone number ( which cst will receive verification code sms)</t>
   </si>
   <si>
     <t>1- text field with title username accept only characters
@@ -758,6 +751,14 @@
   </si>
   <si>
     <t xml:space="preserve">No Cmment </t>
+  </si>
+  <si>
+    <t>1- username 
+ 2-password 
+3- confirm password
+ 4-national ID 
+ 5- email
+ 6-phone number ( which cst will receive verification code sms)</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1306,6 +1307,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1330,26 +1352,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1663,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1682,132 +1689,132 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
+      <c r="C3" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
     </row>
     <row r="6" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="E7" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="F7" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="G7" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="98" t="s">
-        <v>95</v>
+      <c r="I7" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="105" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
     </row>
     <row r="9" spans="3:12" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="76">
         <v>43470</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="112">
+        <v>91</v>
+      </c>
+      <c r="I10" s="104">
         <v>43501</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="76">
         <v>43501</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="111">
+        <v>91</v>
+      </c>
+      <c r="I11" s="103">
         <v>43501</v>
       </c>
       <c r="J11" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1821,15 +1828,15 @@
       <c r="J12" s="9"/>
     </row>
     <row r="15" spans="3:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
+      <c r="C15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="21" spans="2:27" s="53" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="54" t="s">
@@ -1839,25 +1846,25 @@
         <v>1</v>
       </c>
       <c r="D21" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="54" t="s">
+      <c r="G21" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="H21" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="I21" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="58" t="s">
+      <c r="J21" s="59" t="s">
         <v>108</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>109</v>
       </c>
       <c r="K21" s="57"/>
       <c r="L21" s="57"/>
@@ -1879,7 +1886,7 @@
     </row>
     <row r="22" spans="2:27" s="73" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="66" t="s">
         <v>41</v>
@@ -1889,19 +1896,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J22" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K22" s="72"/>
       <c r="L22" s="72"/>
@@ -1923,7 +1930,7 @@
     </row>
     <row r="23" spans="2:27" s="73" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="66" t="s">
         <v>3</v>
@@ -1933,19 +1940,19 @@
         <v>42</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J23" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K23" s="72"/>
       <c r="L23" s="72"/>
@@ -1967,29 +1974,29 @@
     </row>
     <row r="24" spans="2:27" s="73" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="67"/>
       <c r="E24" s="74" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J24" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K24" s="72"/>
       <c r="L24" s="72"/>
@@ -2011,31 +2018,31 @@
     </row>
     <row r="25" spans="2:27" s="73" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="79" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="74" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J25" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
@@ -2057,7 +2064,7 @@
     </row>
     <row r="26" spans="2:27" s="73" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="66" t="s">
         <v>7</v>
@@ -2067,19 +2074,19 @@
         <v>8</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I26" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J26" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K26" s="72"/>
       <c r="L26" s="72"/>
@@ -2101,29 +2108,29 @@
     </row>
     <row r="27" spans="2:27" s="73" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="67"/>
       <c r="E27" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J27" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27" s="72"/>
       <c r="L27" s="72"/>
@@ -2145,29 +2152,29 @@
     </row>
     <row r="28" spans="2:27" s="73" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J28" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K28" s="72"/>
       <c r="L28" s="72"/>
@@ -2188,32 +2195,32 @@
       <c r="AA28" s="72"/>
     </row>
     <row r="29" spans="2:27" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="60" t="s">
-        <v>118</v>
+      <c r="B29" s="113" t="s">
+        <v>117</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="23" t="s">
-        <v>102</v>
-      </c>
       <c r="J29" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2235,7 +2242,7 @@
     </row>
     <row r="30" spans="2:27" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>10</v>
@@ -2247,19 +2254,19 @@
         <v>6</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="23" t="s">
-        <v>102</v>
-      </c>
       <c r="J30" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2281,7 +2288,7 @@
     </row>
     <row r="31" spans="2:27" s="1" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>12</v>
@@ -2291,19 +2298,19 @@
         <v>13</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="23" t="s">
-        <v>102</v>
-      </c>
       <c r="J31" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2325,29 +2332,29 @@
     </row>
     <row r="32" spans="2:27" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="23" t="s">
-        <v>102</v>
-      </c>
       <c r="J32" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2369,7 +2376,7 @@
     </row>
     <row r="33" spans="2:27" s="73" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="81" t="s">
         <v>15</v>
@@ -2379,19 +2386,19 @@
         <v>16</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J33" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K33" s="89"/>
       <c r="L33" s="89"/>
@@ -2413,10 +2420,10 @@
     </row>
     <row r="34" spans="2:27" s="73" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>17</v>
@@ -2425,19 +2432,19 @@
         <v>6</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I34" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J34" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K34" s="89"/>
       <c r="L34" s="89"/>
@@ -2459,7 +2466,7 @@
     </row>
     <row r="35" spans="2:27" s="73" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="81" t="s">
         <v>18</v>
@@ -2469,19 +2476,19 @@
         <v>19</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I35" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J35" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K35" s="72"/>
       <c r="L35" s="72"/>
@@ -2503,29 +2510,29 @@
     </row>
     <row r="36" spans="2:27" s="1" customFormat="1" ht="266.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I36" s="23" t="s">
-        <v>102</v>
-      </c>
       <c r="J36" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2547,29 +2554,29 @@
     </row>
     <row r="37" spans="2:27" s="1" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="23" t="s">
-        <v>102</v>
-      </c>
       <c r="J37" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2591,29 +2598,29 @@
     </row>
     <row r="38" spans="2:27" s="1" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="25" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="23" t="s">
-        <v>102</v>
-      </c>
       <c r="J38" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2635,29 +2642,29 @@
     </row>
     <row r="39" spans="2:27" s="73" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39" s="67"/>
       <c r="E39" s="77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J39" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K39" s="72"/>
       <c r="L39" s="72"/>
@@ -2679,7 +2686,7 @@
     </row>
     <row r="40" spans="2:27" s="73" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>22</v>
@@ -2689,19 +2696,19 @@
         <v>23</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I40" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J40" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K40" s="72"/>
       <c r="L40" s="72"/>
@@ -2723,29 +2730,29 @@
     </row>
     <row r="41" spans="2:27" s="73" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="67"/>
       <c r="E41" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I41" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J41" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
@@ -2767,29 +2774,29 @@
     </row>
     <row r="42" spans="2:27" s="73" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C42" s="81" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="67"/>
       <c r="E42" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I42" s="71" t="s">
-        <v>102</v>
-      </c>
       <c r="J42" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K42" s="72"/>
       <c r="L42" s="72"/>
@@ -2811,29 +2818,29 @@
     </row>
     <row r="43" spans="2:27" s="13" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="86" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I43" s="35" t="s">
-        <v>102</v>
-      </c>
       <c r="J43" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K43" s="88"/>
       <c r="L43" s="88"/>
@@ -2855,7 +2862,7 @@
     </row>
     <row r="44" spans="2:27" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>27</v>
@@ -2864,22 +2871,22 @@
         <v>28</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H44" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J44" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
@@ -2901,29 +2908,29 @@
     </row>
     <row r="45" spans="2:27" s="11" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H45" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I45" s="31" t="s">
-        <v>102</v>
-      </c>
       <c r="J45" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -2945,31 +2952,31 @@
     </row>
     <row r="46" spans="2:27" s="13" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>30</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J46" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
@@ -2991,7 +2998,7 @@
     </row>
     <row r="47" spans="2:27" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>31</v>
@@ -3000,22 +3007,22 @@
         <v>32</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J47" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
@@ -3037,31 +3044,31 @@
     </row>
     <row r="48" spans="2:27" s="13" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="44" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H48" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>70</v>
-      </c>
       <c r="J48" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
@@ -3083,31 +3090,31 @@
     </row>
     <row r="49" spans="2:27" s="49" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J49" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K49" s="48"/>
       <c r="L49" s="48"/>
@@ -3129,7 +3136,7 @@
     </row>
     <row r="50" spans="2:27" s="13" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" s="41" t="s">
         <v>35</v>
@@ -3138,22 +3145,22 @@
         <v>36</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G50" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I50" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J50" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
@@ -3175,31 +3182,31 @@
     </row>
     <row r="51" spans="2:27" s="13" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>37</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I51" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J51" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
@@ -3221,31 +3228,31 @@
     </row>
     <row r="52" spans="2:27" s="13" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J52" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
@@ -3267,31 +3274,31 @@
     </row>
     <row r="53" spans="2:27" s="13" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H53" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J53" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
@@ -3313,7 +3320,7 @@
     </row>
     <row r="54" spans="2:27" s="13" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>39</v>
@@ -3322,22 +3329,22 @@
         <v>40</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H54" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J54" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
@@ -3359,328 +3366,328 @@
     </row>
     <row r="55" spans="2:27" s="16" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H55" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="31" t="s">
-        <v>102</v>
-      </c>
       <c r="J55" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:27" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="E56" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I56" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H56" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J56" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:27" s="13" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C57" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="E57" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G57" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H57" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J57" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="2:27" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="E58" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G58" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H58" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="J58" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="2:27" s="4" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D59" s="63"/>
-      <c r="E59" s="106" t="s">
-        <v>184</v>
+      <c r="E59" s="98" t="s">
+        <v>183</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H59" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I59" s="35" t="s">
-        <v>102</v>
-      </c>
       <c r="J59" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="2:27" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="62"/>
+      <c r="E60" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="62"/>
-      <c r="E60" s="107" t="s">
-        <v>157</v>
-      </c>
       <c r="F60" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H60" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I60" s="35" t="s">
-        <v>102</v>
-      </c>
       <c r="J60" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="2:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="108" t="s">
-        <v>158</v>
+        <v>152</v>
+      </c>
+      <c r="C61" s="100" t="s">
+        <v>157</v>
       </c>
       <c r="D61" s="75"/>
-      <c r="E61" s="108" t="s">
-        <v>160</v>
+      <c r="E61" s="100" t="s">
+        <v>159</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H61" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I61" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="I61" s="45" t="s">
-        <v>102</v>
-      </c>
       <c r="J61" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:27" s="82" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="109" t="s">
-        <v>162</v>
-      </c>
       <c r="D62" s="84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J62" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="2:27" s="82" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="110" t="s">
         <v>165</v>
+      </c>
+      <c r="C63" s="102" t="s">
+        <v>164</v>
       </c>
       <c r="D63" s="92"/>
       <c r="E63" s="94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I63" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J63" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="2:27" s="82" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="109" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="C64" s="101" t="s">
+        <v>166</v>
       </c>
       <c r="D64" s="92"/>
       <c r="E64" s="93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I64" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J64" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="2:10" s="82" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="109" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="C65" s="101" t="s">
+        <v>167</v>
       </c>
       <c r="D65" s="95"/>
       <c r="E65" s="96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F65" s="45"/>
       <c r="G65" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I65" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J65" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="2:10" s="82" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="85" t="s">
         <v>174</v>
-      </c>
-      <c r="C66" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="D66" s="85" t="s">
-        <v>175</v>
       </c>
       <c r="E66" s="84" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G66" s="91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H66" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="I66" s="69" t="s">
-        <v>102</v>
-      </c>
       <c r="J66" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">

--- a/Requirements/SIQ.xlsx
+++ b/Requirements/SIQ.xlsx
@@ -162,16 +162,6 @@
   </si>
   <si>
     <t>what are the required fields for admin to register his admin account ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1- username 
-2- password 
-3- national ID 
-4- email
-5- phone number in which he will receive verification code sms
-6- staff ID .
-                 </t>
   </si>
   <si>
     <t>1- username 
@@ -759,6 +749,17 @@
  4-national ID 
  5- email
  6-phone number ( which cst will receive verification code sms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- username 
+2- password 
+3-confirm password
+4- national ID 
+5- email
+6- phone number in which he will receive verification code sms
+7- staff ID .
+                 </t>
   </si>
 </sst>
 </file>
@@ -1328,6 +1329,12 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1351,12 +1358,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1670,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1689,132 +1690,132 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
+      <c r="C3" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
     </row>
     <row r="6" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="E7" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="F7" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="111" t="s">
+      <c r="G7" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="105" t="s">
-        <v>94</v>
+      <c r="I7" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="107" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
     </row>
     <row r="9" spans="3:12" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="76">
         <v>43470</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="104">
         <v>43501</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="76">
         <v>43501</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="103">
         <v>43501</v>
       </c>
       <c r="J11" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1828,15 +1829,15 @@
       <c r="J12" s="9"/>
     </row>
     <row r="15" spans="3:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
+      <c r="C15" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="21" spans="2:27" s="53" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="54" t="s">
@@ -1846,25 +1847,25 @@
         <v>1</v>
       </c>
       <c r="D21" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="54" t="s">
+      <c r="G21" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="H21" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="I21" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="58" t="s">
+      <c r="J21" s="59" t="s">
         <v>107</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>108</v>
       </c>
       <c r="K21" s="57"/>
       <c r="L21" s="57"/>
@@ -1886,29 +1887,29 @@
     </row>
     <row r="22" spans="2:27" s="73" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="74"/>
       <c r="E22" s="68" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J22" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K22" s="72"/>
       <c r="L22" s="72"/>
@@ -1930,29 +1931,29 @@
     </row>
     <row r="23" spans="2:27" s="73" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="66" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J23" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23" s="72"/>
       <c r="L23" s="72"/>
@@ -1974,29 +1975,29 @@
     </row>
     <row r="24" spans="2:27" s="73" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="67"/>
       <c r="E24" s="74" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J24" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="72"/>
       <c r="L24" s="72"/>
@@ -2018,31 +2019,31 @@
     </row>
     <row r="25" spans="2:27" s="73" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="79" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="74" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J25" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
@@ -2064,7 +2065,7 @@
     </row>
     <row r="26" spans="2:27" s="73" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="66" t="s">
         <v>7</v>
@@ -2074,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J26" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K26" s="72"/>
       <c r="L26" s="72"/>
@@ -2108,29 +2109,29 @@
     </row>
     <row r="27" spans="2:27" s="73" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="67"/>
       <c r="E27" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J27" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K27" s="72"/>
       <c r="L27" s="72"/>
@@ -2152,29 +2153,29 @@
     </row>
     <row r="28" spans="2:27" s="73" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J28" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28" s="72"/>
       <c r="L28" s="72"/>
@@ -2195,32 +2196,32 @@
       <c r="AA28" s="72"/>
     </row>
     <row r="29" spans="2:27" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="113" t="s">
-        <v>117</v>
+      <c r="B29" s="105" t="s">
+        <v>116</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="J29" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2242,7 +2243,7 @@
     </row>
     <row r="30" spans="2:27" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>10</v>
@@ -2254,19 +2255,19 @@
         <v>6</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="J30" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2288,7 +2289,7 @@
     </row>
     <row r="31" spans="2:27" s="1" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>12</v>
@@ -2298,19 +2299,19 @@
         <v>13</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="J31" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2332,29 +2333,29 @@
     </row>
     <row r="32" spans="2:27" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="J32" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2376,7 +2377,7 @@
     </row>
     <row r="33" spans="2:27" s="73" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="81" t="s">
         <v>15</v>
@@ -2386,19 +2387,19 @@
         <v>16</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J33" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K33" s="89"/>
       <c r="L33" s="89"/>
@@ -2420,10 +2421,10 @@
     </row>
     <row r="34" spans="2:27" s="73" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>17</v>
@@ -2432,19 +2433,19 @@
         <v>6</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J34" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K34" s="89"/>
       <c r="L34" s="89"/>
@@ -2466,7 +2467,7 @@
     </row>
     <row r="35" spans="2:27" s="73" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="81" t="s">
         <v>18</v>
@@ -2476,19 +2477,19 @@
         <v>19</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J35" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K35" s="72"/>
       <c r="L35" s="72"/>
@@ -2510,29 +2511,29 @@
     </row>
     <row r="36" spans="2:27" s="1" customFormat="1" ht="266.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="J36" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2554,29 +2555,29 @@
     </row>
     <row r="37" spans="2:27" s="1" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I37" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="J37" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2598,29 +2599,29 @@
     </row>
     <row r="38" spans="2:27" s="1" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="25" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="J38" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2642,29 +2643,29 @@
     </row>
     <row r="39" spans="2:27" s="73" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="67"/>
       <c r="E39" s="77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G39" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I39" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J39" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K39" s="72"/>
       <c r="L39" s="72"/>
@@ -2686,7 +2687,7 @@
     </row>
     <row r="40" spans="2:27" s="73" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>22</v>
@@ -2696,19 +2697,19 @@
         <v>23</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G40" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J40" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K40" s="72"/>
       <c r="L40" s="72"/>
@@ -2730,29 +2731,29 @@
     </row>
     <row r="41" spans="2:27" s="73" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="67"/>
       <c r="E41" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G41" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J41" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
@@ -2774,29 +2775,29 @@
     </row>
     <row r="42" spans="2:27" s="73" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="81" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="67"/>
       <c r="E42" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G42" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="71" t="s">
-        <v>101</v>
-      </c>
       <c r="J42" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K42" s="72"/>
       <c r="L42" s="72"/>
@@ -2818,29 +2819,29 @@
     </row>
     <row r="43" spans="2:27" s="13" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="86" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H43" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="I43" s="35" t="s">
-        <v>101</v>
-      </c>
       <c r="J43" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K43" s="88"/>
       <c r="L43" s="88"/>
@@ -2862,7 +2863,7 @@
     </row>
     <row r="44" spans="2:27" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>27</v>
@@ -2871,22 +2872,22 @@
         <v>28</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J44" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
@@ -2908,29 +2909,29 @@
     </row>
     <row r="45" spans="2:27" s="11" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H45" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="31" t="s">
-        <v>101</v>
-      </c>
       <c r="J45" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -2952,31 +2953,31 @@
     </row>
     <row r="46" spans="2:27" s="13" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>30</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J46" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
@@ -2998,7 +2999,7 @@
     </row>
     <row r="47" spans="2:27" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>31</v>
@@ -3007,22 +3008,22 @@
         <v>32</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J47" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
@@ -3044,31 +3045,31 @@
     </row>
     <row r="48" spans="2:27" s="13" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="44" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G48" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>69</v>
-      </c>
       <c r="J48" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
@@ -3090,31 +3091,31 @@
     </row>
     <row r="49" spans="2:27" s="49" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G49" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J49" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K49" s="48"/>
       <c r="L49" s="48"/>
@@ -3136,31 +3137,31 @@
     </row>
     <row r="50" spans="2:27" s="13" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G50" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J50" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
@@ -3182,31 +3183,31 @@
     </row>
     <row r="51" spans="2:27" s="13" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G51" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J51" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
@@ -3228,31 +3229,31 @@
     </row>
     <row r="52" spans="2:27" s="13" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G52" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J52" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
@@ -3274,31 +3275,31 @@
     </row>
     <row r="53" spans="2:27" s="13" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H53" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J53" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
@@ -3320,31 +3321,31 @@
     </row>
     <row r="54" spans="2:27" s="13" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="39" t="s">
-        <v>40</v>
-      </c>
       <c r="E54" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H54" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J54" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
@@ -3366,328 +3367,328 @@
     </row>
     <row r="55" spans="2:27" s="16" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I55" s="31" t="s">
-        <v>101</v>
-      </c>
       <c r="J55" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="2:27" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>56</v>
-      </c>
       <c r="E56" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H56" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J56" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:27" s="13" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>66</v>
-      </c>
       <c r="E57" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G57" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I57" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J57" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="2:27" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>58</v>
-      </c>
       <c r="E58" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G58" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H58" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J58" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="2:27" s="4" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59" s="63"/>
       <c r="E59" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H59" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="I59" s="35" t="s">
-        <v>101</v>
-      </c>
       <c r="J59" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="2:27" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D60" s="62"/>
       <c r="E60" s="99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H60" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="I60" s="35" t="s">
-        <v>101</v>
-      </c>
       <c r="J60" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="2:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D61" s="75"/>
       <c r="E61" s="100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H61" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I61" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="I61" s="45" t="s">
-        <v>101</v>
-      </c>
       <c r="J61" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="2:27" s="82" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="C62" s="101" t="s">
-        <v>161</v>
-      </c>
       <c r="D62" s="84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J62" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="2:27" s="82" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63" s="102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D63" s="92"/>
       <c r="E63" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I63" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J63" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="2:27" s="82" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D64" s="92"/>
       <c r="E64" s="93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I64" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J64" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="2:10" s="82" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" s="101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D65" s="95"/>
       <c r="E65" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F65" s="45"/>
       <c r="G65" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I65" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J65" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="2:10" s="82" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="114" t="s">
+      <c r="B66" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="85" t="s">
         <v>173</v>
-      </c>
-      <c r="C66" s="101" t="s">
-        <v>178</v>
-      </c>
-      <c r="D66" s="85" t="s">
-        <v>174</v>
       </c>
       <c r="E66" s="84" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G66" s="91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H66" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="I66" s="69" t="s">
-        <v>101</v>
-      </c>
       <c r="J66" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">

--- a/Requirements/SIQ.xlsx
+++ b/Requirements/SIQ.xlsx
@@ -1672,7 +1672,7 @@
   <dimension ref="B3:AA67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3136,7 +3136,7 @@
       <c r="AA49" s="48"/>
     </row>
     <row r="50" spans="2:27" s="13" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="105" t="s">
         <v>137</v>
       </c>
       <c r="C50" s="41" t="s">

--- a/Requirements/SIQ.xlsx
+++ b/Requirements/SIQ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\Internet-Banking-System\Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\GitHub\Internet-Banking-System\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView minimized="1" xWindow="390" yWindow="975" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Requirements/SIQ.xlsx
+++ b/Requirements/SIQ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Internet-Banking-System\Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\coding\Internet-Banking-System\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="204">
   <si>
     <t>ID</t>
   </si>
@@ -760,6 +760,60 @@
 6- phone number in which he will receive verification code sms
 7- staff ID .
                  </t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q46</t>
+  </si>
+  <si>
+    <t>The client shall have button with title accounts
+ in all pages, so he can back to his accounts page 
+from any page.</t>
+  </si>
+  <si>
+    <t>khadija mostafa</t>
+  </si>
+  <si>
+    <t>"10/5/2019"</t>
+  </si>
+  <si>
+    <t>how can customer navigate to his accounts page from any page?</t>
+  </si>
+  <si>
+    <t>Any popup message shall be in the form of pop up with close icon and button with title ok.</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q47</t>
+  </si>
+  <si>
+    <t>how any error message should be dislayed ?</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q48</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q49</t>
+  </si>
+  <si>
+    <t>Login page shall have button with title login and
+ register in the form of hyper link.</t>
+  </si>
+  <si>
+    <t>what is the shape of register and login in the login page ?</t>
+  </si>
+  <si>
+    <t>Register page shall have button with title register and login in the form of hyper link</t>
+  </si>
+  <si>
+    <t>what is the shape of register and login in the registeration page ?</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q50</t>
+  </si>
+  <si>
+    <t>Customer main page shall have button with title show details to be redirected to account page and other button with title previous transaction to be redirected to previous transactions page.</t>
+  </si>
+  <si>
+    <t>what is the shae of customer account page ?</t>
   </si>
 </sst>
 </file>
@@ -898,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1025,11 +1079,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1307,7 +1372,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1357,6 +1421,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1669,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AA67"/>
+  <dimension ref="B3:AA71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1690,55 +1766,55 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="6" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="107" t="s">
+      <c r="H7" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="107" t="s">
+      <c r="J7" s="106" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
     </row>
     <row r="9" spans="3:12" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
@@ -1785,7 +1861,7 @@
       <c r="H10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="103">
         <v>43501</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -1811,7 +1887,7 @@
       <c r="H11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="102">
         <v>43501</v>
       </c>
       <c r="J11" s="90" t="s">
@@ -1829,15 +1905,15 @@
       <c r="J12" s="9"/>
     </row>
     <row r="15" spans="3:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
     </row>
     <row r="21" spans="2:27" s="53" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="54" t="s">
@@ -2196,7 +2272,7 @@
       <c r="AA28" s="72"/>
     </row>
     <row r="29" spans="2:27" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="104" t="s">
         <v>116</v>
       </c>
       <c r="C29" s="18" t="s">
@@ -3136,7 +3212,7 @@
       <c r="AA49" s="48"/>
     </row>
     <row r="50" spans="2:27" s="13" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="104" t="s">
         <v>137</v>
       </c>
       <c r="C50" s="41" t="s">
@@ -3487,7 +3563,7 @@
         <v>153</v>
       </c>
       <c r="D59" s="63"/>
-      <c r="E59" s="98" t="s">
+      <c r="E59" s="97" t="s">
         <v>182</v>
       </c>
       <c r="F59" s="35" t="s">
@@ -3514,7 +3590,7 @@
         <v>154</v>
       </c>
       <c r="D60" s="62"/>
-      <c r="E60" s="99" t="s">
+      <c r="E60" s="98" t="s">
         <v>155</v>
       </c>
       <c r="F60" s="35" t="s">
@@ -3537,11 +3613,11 @@
       <c r="B61" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="100" t="s">
+      <c r="C61" s="99" t="s">
         <v>156</v>
       </c>
       <c r="D61" s="75"/>
-      <c r="E61" s="100" t="s">
+      <c r="E61" s="99" t="s">
         <v>158</v>
       </c>
       <c r="F61" s="35" t="s">
@@ -3564,7 +3640,7 @@
       <c r="B62" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="101" t="s">
+      <c r="C62" s="100" t="s">
         <v>160</v>
       </c>
       <c r="D62" s="84" t="s">
@@ -3591,7 +3667,7 @@
       <c r="B63" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="C63" s="102" t="s">
+      <c r="C63" s="101" t="s">
         <v>163</v>
       </c>
       <c r="D63" s="92"/>
@@ -3616,7 +3692,7 @@
       <c r="B64" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="101" t="s">
+      <c r="C64" s="100" t="s">
         <v>165</v>
       </c>
       <c r="D64" s="92"/>
@@ -3641,7 +3717,7 @@
       <c r="B65" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="C65" s="101" t="s">
+      <c r="C65" s="100" t="s">
         <v>166</v>
       </c>
       <c r="D65" s="95"/>
@@ -3663,10 +3739,10 @@
       </c>
     </row>
     <row r="66" spans="2:10" s="82" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="106" t="s">
+      <c r="B66" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="C66" s="101" t="s">
+      <c r="C66" s="100" t="s">
         <v>177</v>
       </c>
       <c r="D66" s="85" t="s">
@@ -3691,8 +3767,150 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D67" s="97"/>
+    <row r="67" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B67" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="100" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I67" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J67" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B68" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I68" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J68" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B69" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="H69" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I69" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J69" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B70" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I70" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J70" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B71" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I71" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J71" s="69" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Requirements/SIQ.xlsx
+++ b/Requirements/SIQ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="225">
   <si>
     <t>ID</t>
   </si>
@@ -814,6 +814,71 @@
   </si>
   <si>
     <t>what is the shae of customer account page ?</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q51</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q52</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q53</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q54</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q55</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q56</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q57</t>
+  </si>
+  <si>
+    <t>Customer shall be redirected to login page with empty fields if customer press on logout hyperlink from his (accounts/ account/previous transaction/ listing) page</t>
+  </si>
+  <si>
+    <t>where shall Customer  be redirected to  if customer press on logout hyperlink from his (accounts/ account/previous transaction/ listing) page</t>
+  </si>
+  <si>
+    <t>If customer press back from his account page, customer shall be redirected to his main/accounts page.</t>
+  </si>
+  <si>
+    <t>If customer press back from his listing page, customer shall be redirected to his previous transaction page.</t>
+  </si>
+  <si>
+    <t>to where shall customer be redirected if he press back from his account page?</t>
+  </si>
+  <si>
+    <t>to where shall customer be redirected if he press back from his listing  page?</t>
+  </si>
+  <si>
+    <t>to where shall customer be redirected if he press back from his previous transaction  page?</t>
+  </si>
+  <si>
+    <t>If customer press back from his previous transactions page, customer shall be redirected to his account  page.</t>
+  </si>
+  <si>
+    <t>The listing page shall have scroll bar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what if the number of the previous transaction page greater than 
+the screen ? 
+</t>
+  </si>
+  <si>
+    <t>If customer click on the login hyper link, customer shall be redirected to login page.</t>
+  </si>
+  <si>
+    <t>to where shall customer be redirected if he click on the login hyper link ? .</t>
+  </si>
+  <si>
+    <t>If customer press on ok button in any pop up message customer shall remain in the same page.</t>
+  </si>
+  <si>
+    <t>what shall happen if the customer press on ok button or close icon for any pp up message ?</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1399,6 +1464,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1423,17 +1500,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1745,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AA71"/>
+  <dimension ref="B3:AA78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71:J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1766,55 +1840,55 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="6" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="106" t="s">
+      <c r="H7" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="106" t="s">
+      <c r="J7" s="110" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
     </row>
     <row r="9" spans="3:12" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
@@ -1905,15 +1979,15 @@
       <c r="J12" s="9"/>
     </row>
     <row r="15" spans="3:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
     </row>
     <row r="21" spans="2:27" s="53" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="54" t="s">
@@ -3783,7 +3857,7 @@
       <c r="F67" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="G67" s="114" t="s">
+      <c r="G67" s="106" t="s">
         <v>189</v>
       </c>
       <c r="H67" s="35" t="s">
@@ -3812,7 +3886,7 @@
       <c r="F68" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="G68" s="114" t="s">
+      <c r="G68" s="106" t="s">
         <v>189</v>
       </c>
       <c r="H68" s="35" t="s">
@@ -3829,10 +3903,10 @@
       <c r="B69" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="115" t="s">
+      <c r="C69" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="116" t="s">
+      <c r="D69" s="108" t="s">
         <v>197</v>
       </c>
       <c r="E69" s="84" t="s">
@@ -3841,7 +3915,7 @@
       <c r="F69" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="G69" s="114" t="s">
+      <c r="G69" s="106" t="s">
         <v>189</v>
       </c>
       <c r="H69" s="35" t="s">
@@ -3858,10 +3932,10 @@
       <c r="B70" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="115" t="s">
+      <c r="C70" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="D70" s="116" t="s">
+      <c r="D70" s="108" t="s">
         <v>199</v>
       </c>
       <c r="E70" s="84" t="s">
@@ -3870,7 +3944,7 @@
       <c r="F70" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="G70" s="114" t="s">
+      <c r="G70" s="106" t="s">
         <v>189</v>
       </c>
       <c r="H70" s="35" t="s">
@@ -3887,10 +3961,10 @@
       <c r="B71" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="117" t="s">
+      <c r="C71" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="D71" s="116" t="s">
+      <c r="D71" s="108" t="s">
         <v>202</v>
       </c>
       <c r="E71" s="84" t="s">
@@ -3899,7 +3973,7 @@
       <c r="F71" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="G71" s="114" t="s">
+      <c r="G71" s="106" t="s">
         <v>189</v>
       </c>
       <c r="H71" s="35" t="s">
@@ -3909,6 +3983,209 @@
         <v>190</v>
       </c>
       <c r="J71" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B72" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="108" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G72" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="H72" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I72" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J72" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B73" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="108" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G73" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J73" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B74" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="107" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74" s="108" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G74" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I74" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J74" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B75" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="119" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I75" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J75" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B76" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="120" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G76" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="H76" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I76" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J76" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B77" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G77" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I77" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J77" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="107" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="H78" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I78" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="J78" s="69" t="s">
         <v>190</v>
       </c>
     </row>

--- a/Requirements/SIQ.xlsx
+++ b/Requirements/SIQ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\coding\Internet-Banking-System\Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\for srs and siq and registeration update\Internet-Banking-System\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="235">
   <si>
     <t>ID</t>
   </si>
@@ -879,6 +879,36 @@
   </si>
   <si>
     <t>what shall happen if the customer press on ok button or close icon for any pp up message ?</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q58</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q59</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SIQ_Q60</t>
+  </si>
+  <si>
+    <t>what is the error message shall be displayed if the customer leave a mandatory field empty ?</t>
+  </si>
+  <si>
+    <t>what is the error message shall be displayed if the customer doesn't achieve length constraint ?</t>
+  </si>
+  <si>
+    <t>what is the error message shall be displayed if the customer doesn't achieve the using chararcters constraints  ?</t>
+  </si>
+  <si>
+    <t>error message beyound the field that " this field is mandatory "</t>
+  </si>
+  <si>
+    <t>error message beyound the field that "length must be between x and y "</t>
+  </si>
+  <si>
+    <t>error message beyound the field that " invalid data format "</t>
+  </si>
+  <si>
+    <t>"18/5/2019"</t>
   </si>
 </sst>
 </file>
@@ -1476,6 +1506,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1499,15 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AA78"/>
+  <dimension ref="B3:AA81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71:J78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1840,55 +1870,55 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
     </row>
     <row r="6" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="110" t="s">
+      <c r="J7" s="113" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
     </row>
     <row r="9" spans="3:12" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
@@ -1979,15 +2009,15 @@
       <c r="J12" s="9"/>
     </row>
     <row r="15" spans="3:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
     </row>
     <row r="21" spans="2:27" s="53" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="54" t="s">
@@ -4077,10 +4107,10 @@
       <c r="B75" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="C75" s="119" t="s">
+      <c r="C75" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="D75" s="118" t="s">
+      <c r="D75" s="110" t="s">
         <v>218</v>
       </c>
       <c r="E75" s="84" t="s">
@@ -4109,7 +4139,7 @@
       <c r="C76" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="120" t="s">
+      <c r="D76" s="112" t="s">
         <v>219</v>
       </c>
       <c r="E76" s="84" t="s">
@@ -4138,7 +4168,7 @@
       <c r="C77" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="D77" s="120" t="s">
+      <c r="D77" s="112" t="s">
         <v>221</v>
       </c>
       <c r="E77" s="84" t="s">
@@ -4167,7 +4197,7 @@
       <c r="C78" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="D78" s="120" t="s">
+      <c r="D78" s="112" t="s">
         <v>223</v>
       </c>
       <c r="E78" s="84" t="s">
@@ -4187,6 +4217,93 @@
       </c>
       <c r="J78" s="69" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B79" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G79" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="H79" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I79" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="J79" s="69" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B80" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I80" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="J80" s="69" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="107" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="H81" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I81" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="J81" s="69" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
